--- a/R Scripts/Dataset/CRQ3_2.xlsx
+++ b/R Scripts/Dataset/CRQ3_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_C5566FCB7C50EB76A2C4EAA2E6361DEE8E880555" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{34C12B63-71C7-4663-8BE2-DCDDDCE3CD69}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_C5566FCB7C50EB76A2C4EAA2E6361DEE8E880555" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0A9A5964-5F14-48C2-9AB4-4198792552F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>TEMPO_MEDIO_ISSUES_S_FW</t>
+    <t>AVERAGE_TIME_PER_ISSUES_WO_FT</t>
   </si>
   <si>
-    <t>TEMPO_MEDIO_ISSUES_C_FW</t>
+    <t>AVERAGE_TIME_PER_ISSUES_WITH_FT</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
